--- a/StudentGrades_solved.xlsx
+++ b/StudentGrades_solved.xlsx
@@ -5,16 +5,59 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew stein\Desktop\data analytics classswork\module 1 (Excel)\1-2-Student-Resources\2-Student-Resources\03-Stu_LineAndBar\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew stein\Desktop\data analytics classswork\module 1 (Excel)\1-2-Student-Resources\2-Student-Resources\03-Stu_LineAndBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEEFA8D-7DEE-433B-9A8C-162EC001F828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE241781-594C-4BCF-8CA1-788827A4EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="720" windowWidth="20085" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="540" windowWidth="26565" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$10:$G$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$11:$G$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$12:$G$12</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$13:$G$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$14:$G$14</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$15:$G$15</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$16:$G$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$17:$G$17</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$18:$G$18</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$19:$G$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$20:$G$20</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$21:$G$21</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$14</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$19</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -742,7 +785,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1068,10 +1111,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1192,7 +1235,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1642,7 +1685,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1968,10 +2011,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2067,7 +2110,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2393,10 +2436,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2517,7 +2560,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6340,12 +6383,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6380,53 +6420,16 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6460,82 +6463,14 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -10285,15 +10220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
+      <xdr:colOff>313763</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10620,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
